--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" tabRatio="268"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="268"/>
   </bookViews>
   <sheets>
     <sheet name="多语言" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>键值</t>
   </si>
@@ -5692,6 +5692,33 @@
   </si>
   <si>
     <t>Para sacar dinheiro, você precisa entrar na fila. Ainda há %s pessoas na sua frente.</t>
+  </si>
+  <si>
+    <t>str_with_emtu</t>
+  </si>
+  <si>
+    <t>Earn %s more to unlock%s!</t>
+  </si>
+  <si>
+    <t>Ganhe mais %s para desbloquear %s!</t>
+  </si>
+  <si>
+    <t>str_with_smttu</t>
+  </si>
+  <si>
+    <t>Combo %s more times to unlock %s!</t>
+  </si>
+  <si>
+    <t>Combo %s vezes mais para desbloquear %s!</t>
+  </si>
+  <si>
+    <t>str_bulletin</t>
+  </si>
+  <si>
+    <t>&lt;color=#0fffff&gt;Congrats&lt;/color&gt; &lt;color=#FDF760&gt;%s&lt;/color&gt; &lt;color=#0fffff&gt;ezkw Withdraw&lt;/color&gt; &lt;color=#00ff00&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0fffff&gt;Parabéns&lt;/color&gt; &lt;color=#FDF760&gt;%s&lt;/color&gt; &lt;color=#0fffff&gt;ezkw Você sacou&lt;/color&gt; &lt;color=#00ff00&gt;%s&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -6792,18 +6819,18 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.6083333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.6083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="109.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="111.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="62.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="63.875" style="2" customWidth="1"/>
@@ -6843,7 +6870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -6855,7 +6882,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7099,7 +7126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>87</v>
       </c>
@@ -7111,7 +7138,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>90</v>
       </c>
@@ -7123,7 +7150,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
@@ -7135,7 +7162,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>96</v>
       </c>
@@ -7147,7 +7174,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:3">
+    <row r="16" ht="21" customHeight="1" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
@@ -7202,9 +7229,39 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1"/>
-    <row r="22" ht="21" customHeight="1"/>
-    <row r="23" ht="21" customHeight="1"/>
+    <row r="21" ht="21" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="24" ht="21" customHeight="1"/>
     <row r="25" ht="21" customHeight="1"/>
     <row r="26" ht="21" customHeight="1"/>

--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -5715,10 +5715,10 @@
     <t>str_bulletin</t>
   </si>
   <si>
-    <t>&lt;color=#0fffff&gt;Congrats&lt;/color&gt; &lt;color=#FDF760&gt;%s&lt;/color&gt; &lt;color=#0fffff&gt;ezkw Withdraw&lt;/color&gt; &lt;color=#00ff00&gt;%s&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#0fffff&gt;Parabéns&lt;/color&gt; &lt;color=#FDF760&gt;%s&lt;/color&gt; &lt;color=#0fffff&gt;ezkw Você sacou&lt;/color&gt; &lt;color=#00ff00&gt;%s&lt;/color&gt;</t>
+    <t>&lt;color=#0160ba&gt;Congrats&lt;/color&gt; &lt;color=#fd6100&gt;%s&lt;/color&gt; &lt;color=#0160ba&gt;Withdraw&lt;/color&gt; &lt;color=#fd6100&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#0160ba&gt;Parabéns&lt;/color&gt; &lt;color=#fd6100&gt;%s&lt;/color&gt; &lt;color=#0160ba&gt;ezkw Você sacou&lt;/color&gt; &lt;color=#fd6100&gt;%s&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -6823,7 +6823,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
